--- a/Templates/MIAPPE_Spreadsheet_Template.xlsx
+++ b/Templates/MIAPPE_Spreadsheet_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId3"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="637">
   <si>
     <t xml:space="preserve">README</t>
   </si>
@@ -1468,21 +1468,6 @@
   </si>
   <si>
     <t xml:space="preserve">Non-exhaustive list of Experimental Factors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_acc_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trait_name</t>
   </si>
   <si>
     <t xml:space="preserve">Non-exhaustive list of Environment Parameters. </t>
@@ -2934,7 +2919,7 @@
   </sheetPr>
   <dimension ref="A1:T980"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8010,7 +7995,7 @@
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="55" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="55" width="9.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="55" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="55" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="55" width="16.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="55" width="12"/>
@@ -9173,116 +9158,92 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y997"/>
+  <dimension ref="A1:T997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16379" min="16379" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>410</v>
+        <v>69</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>69</v>
+        <v>369</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>370</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="L1" s="44" t="s">
         <v>371</v>
       </c>
+      <c r="H1" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="M1" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="R1" s="15" t="s">
         <v>377</v>
       </c>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
       <c r="S1" s="53"/>
       <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="45"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="46"/>
@@ -9298,11 +9259,6 @@
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="46"/>
@@ -9318,11 +9274,6 @@
       <c r="K4" s="46"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="46"/>
@@ -9338,11 +9289,6 @@
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="46"/>
@@ -9358,11 +9304,6 @@
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="46"/>
@@ -9378,11 +9319,6 @@
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="46"/>
@@ -9398,11 +9334,6 @@
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10448,7 +10379,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -10494,13 +10425,13 @@
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>41</v>
@@ -10508,7 +10439,7 @@
     </row>
     <row r="5" s="60" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -10516,13 +10447,13 @@
     </row>
     <row r="6" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>245</v>
@@ -10530,13 +10461,13 @@
     </row>
     <row r="7" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="61" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>245</v>
@@ -10544,13 +10475,13 @@
     </row>
     <row r="8" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="61" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>245</v>
@@ -10558,24 +10489,24 @@
     </row>
     <row r="9" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="61" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C10" s="61" t="n">
         <v>16</v>
@@ -10586,13 +10517,13 @@
     </row>
     <row r="11" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>245</v>
@@ -10600,13 +10531,13 @@
     </row>
     <row r="12" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="61" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>245</v>
@@ -10614,13 +10545,13 @@
     </row>
     <row r="13" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="61" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>245</v>
@@ -10628,27 +10559,27 @@
     </row>
     <row r="14" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>245</v>
@@ -10656,13 +10587,13 @@
     </row>
     <row r="16" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>245</v>
@@ -10670,13 +10601,13 @@
     </row>
     <row r="17" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>245</v>
@@ -10684,13 +10615,13 @@
     </row>
     <row r="18" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>245</v>
@@ -10698,13 +10629,13 @@
     </row>
     <row r="19" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D19" s="61" t="s">
         <v>245</v>
@@ -10712,27 +10643,27 @@
     </row>
     <row r="20" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="61" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" s="60" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="61" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D21" s="61" t="s">
         <v>245</v>
@@ -10740,10 +10671,10 @@
     </row>
     <row r="22" s="60" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="61" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C22" s="61" t="n">
         <v>0.3</v>
@@ -10754,13 +10685,13 @@
     </row>
     <row r="23" s="60" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="61" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D23" s="61" t="s">
         <v>245</v>
@@ -10768,10 +10699,10 @@
     </row>
     <row r="24" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="61" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C24" s="61" t="n">
         <v>0.33</v>
@@ -10782,7 +10713,7 @@
     </row>
     <row r="25" s="60" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -10790,41 +10721,41 @@
     </row>
     <row r="26" s="60" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="61" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="61" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="61" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>245</v>
@@ -10832,13 +10763,13 @@
     </row>
     <row r="29" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="61" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>245</v>
@@ -10846,13 +10777,13 @@
     </row>
     <row r="30" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="61" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D30" s="61" t="s">
         <v>245</v>
@@ -10860,67 +10791,67 @@
     </row>
     <row r="31" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="61" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="61" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="61" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" s="60" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="61" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" s="60" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="61" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D35" s="61" t="s">
         <v>245</v>
@@ -10928,13 +10859,13 @@
     </row>
     <row r="36" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="61" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D36" s="61" t="s">
         <v>245</v>
@@ -10942,13 +10873,13 @@
     </row>
     <row r="37" s="60" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="61" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D37" s="61" t="s">
         <v>245</v>
@@ -10956,13 +10887,13 @@
     </row>
     <row r="38" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="61" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D38" s="61" t="s">
         <v>245</v>
@@ -10970,13 +10901,13 @@
     </row>
     <row r="39" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="61" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D39" s="61" t="s">
         <v>245</v>
@@ -10984,7 +10915,7 @@
     </row>
     <row r="40" s="60" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -10992,83 +10923,83 @@
     </row>
     <row r="41" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="61" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="61" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="61" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="61" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="61" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="61" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D46" s="61" t="s">
         <v>245</v>
@@ -11076,13 +11007,13 @@
     </row>
     <row r="47" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="61" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D47" s="61" t="s">
         <v>245</v>
@@ -11090,41 +11021,41 @@
     </row>
     <row r="48" s="60" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="61" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="61" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" s="60" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="61" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D50" s="61" t="s">
         <v>245</v>
@@ -12114,7 +12045,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -12184,13 +12115,13 @@
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>41</v>
@@ -12198,348 +12129,348 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="61" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="61" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="61" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="61" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="61" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="61" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="61" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="61" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="61" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="61" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="61" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="61" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="61" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="61" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="61" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13545,7 +13476,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16231" style="1" width="11.5"/>
   </cols>
@@ -14660,7 +14591,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.2"/>
@@ -18073,7 +18004,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.01"/>
@@ -18084,7 +18015,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="29.66"/>

--- a/Templates/MIAPPE_Spreadsheet_Template.xlsx
+++ b/Templates/MIAPPE_Spreadsheet_Template.xlsx
@@ -1323,8 +1323,27 @@
     <t xml:space="preserve">Observed Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">An observed variable describes how a measurement has been made. It typically takes the form of a measured characteristic of the observation unit (plant or environmental trait), associated to the method and unit of measurement. 
-Multiple variables with the same combination of trait, method and scale can be used in association with different plant parts (leaf 1, leaf 2), when this distinction is necessary for observations referring to different parts of the same observation unit.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">An observed variable describes how a measurement has been made. It typically takes the form of a measured characteristic of the observation unit (plant or environmental trait), associated to the method and unit of measurement. 
+Multiple variables with the same combination of trait, method and scale can be used in association with different plant parts (leaf 1, leaf 2), when this distinction is necessary for observations referring to different parts of the same observation unit.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This section is mandatory.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Variable ID</t>
@@ -2351,12 +2370,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -2367,6 +2380,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2462,7 +2483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2544,42 +2565,54 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2591,16 +2624,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2611,8 +2636,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2621,6 +2650,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2651,11 +2700,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2865,10 +2918,10 @@
     <tabColor rgb="FF0000FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XES1048576"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2928,7 +2981,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="10" customFormat="true" ht="98.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +3005,7 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +3029,7 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +3053,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3093,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -3080,8 +3133,8 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+    <row r="8" s="23" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -3112,16 +3165,16 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" s="23" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -3133,10 +3186,10 @@
       <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="24" t="n">
         <v>41260</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="24" t="n">
         <v>41330</v>
       </c>
       <c r="G9" s="20" t="s">
@@ -3152,16 +3205,16 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -3192,15 +3245,15 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
         <v>46</v>
       </c>
@@ -3224,7 +3277,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -3248,7 +3301,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
@@ -3310,7 +3363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -3365,15 +3418,15 @@
       <c r="R14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="S14" s="25" t="s">
         <v>84</v>
       </c>
       <c r="T14" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+    <row r="15" s="23" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -3412,30 +3465,41 @@
       <c r="M15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="S15" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="26" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="XET15" s="1"/>
+      <c r="XEU15" s="1"/>
+      <c r="XEV15" s="1"/>
+      <c r="XEW15" s="1"/>
+      <c r="XEX15" s="1"/>
+      <c r="XEY15" s="1"/>
+      <c r="XEZ15" s="1"/>
+      <c r="XFA15" s="1"/>
+      <c r="XFB15" s="1"/>
+      <c r="XFC15" s="1"/>
+      <c r="XFD15" s="1"/>
+    </row>
+    <row r="16" s="23" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -3447,10 +3511,10 @@
       <c r="D16" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="24" t="n">
         <v>37587</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -3474,30 +3538,41 @@
       <c r="M16" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="XET16" s="1"/>
+      <c r="XEU16" s="1"/>
+      <c r="XEV16" s="1"/>
+      <c r="XEW16" s="1"/>
+      <c r="XEX16" s="1"/>
+      <c r="XEY16" s="1"/>
+      <c r="XEZ16" s="1"/>
+      <c r="XFA16" s="1"/>
+      <c r="XFB16" s="1"/>
+      <c r="XFC16" s="1"/>
+      <c r="XFD16" s="1"/>
+    </row>
+    <row r="17" s="23" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -3536,29 +3611,40 @@
       <c r="M17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="S17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XET17" s="1"/>
+      <c r="XEU17" s="1"/>
+      <c r="XEV17" s="1"/>
+      <c r="XEW17" s="1"/>
+      <c r="XEX17" s="1"/>
+      <c r="XEY17" s="1"/>
+      <c r="XEZ17" s="1"/>
+      <c r="XFA17" s="1"/>
+      <c r="XFB17" s="1"/>
+      <c r="XFC17" s="1"/>
+      <c r="XFD17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
         <v>128</v>
       </c>
@@ -3582,7 +3668,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>129</v>
       </c>
@@ -3606,7 +3692,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
@@ -3643,7 +3729,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
@@ -3680,11 +3766,11 @@
       <c r="T21" s="8"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+    <row r="22" s="23" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -3702,26 +3788,36 @@
       <c r="G22" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="XET22" s="1"/>
+      <c r="XEU22" s="1"/>
+      <c r="XEV22" s="1"/>
+      <c r="XEW22" s="1"/>
+      <c r="XEX22" s="1"/>
+      <c r="XEY22" s="1"/>
+      <c r="XEZ22" s="1"/>
+      <c r="XFA22" s="1"/>
+      <c r="XFB22" s="1"/>
+      <c r="XFC22" s="1"/>
+      <c r="XFD22" s="1"/>
+    </row>
+    <row r="23" s="23" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -3730,35 +3826,45 @@
       <c r="D23" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="24" t="s">
         <v>150</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="XET23" s="1"/>
+      <c r="XEU23" s="1"/>
+      <c r="XEV23" s="1"/>
+      <c r="XEW23" s="1"/>
+      <c r="XEX23" s="1"/>
+      <c r="XEY23" s="1"/>
+      <c r="XEZ23" s="1"/>
+      <c r="XFA23" s="1"/>
+      <c r="XFB23" s="1"/>
+      <c r="XFC23" s="1"/>
+      <c r="XFD23" s="1"/>
+    </row>
+    <row r="24" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -3776,23 +3882,33 @@
       <c r="G24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="s">
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="XET24" s="1"/>
+      <c r="XEU24" s="1"/>
+      <c r="XEV24" s="1"/>
+      <c r="XEW24" s="1"/>
+      <c r="XEX24" s="1"/>
+      <c r="XEY24" s="1"/>
+      <c r="XEZ24" s="1"/>
+      <c r="XFA24" s="1"/>
+      <c r="XFB24" s="1"/>
+      <c r="XFC24" s="1"/>
+      <c r="XFD24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="13"/>
@@ -3815,7 +3931,7 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
         <v>156</v>
       </c>
@@ -3839,7 +3955,7 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
         <v>6</v>
       </c>
@@ -3872,7 +3988,7 @@
       <c r="T27" s="8"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>15</v>
       </c>
@@ -3905,11 +4021,11 @@
       <c r="T28" s="8"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+    <row r="29" s="23" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -3921,28 +4037,38 @@
       <c r="E29" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="XET29" s="1"/>
+      <c r="XEU29" s="1"/>
+      <c r="XEV29" s="1"/>
+      <c r="XEW29" s="1"/>
+      <c r="XEX29" s="1"/>
+      <c r="XEY29" s="1"/>
+      <c r="XEZ29" s="1"/>
+      <c r="XFA29" s="1"/>
+      <c r="XFB29" s="1"/>
+      <c r="XFC29" s="1"/>
+      <c r="XFD29" s="1"/>
+    </row>
+    <row r="30" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C30" s="20" t="s">
@@ -3951,31 +4077,41 @@
       <c r="D30" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="20" t="n">
+      <c r="E30" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="F30" s="29"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="XET30" s="1"/>
+      <c r="XEU30" s="1"/>
+      <c r="XEV30" s="1"/>
+      <c r="XEW30" s="1"/>
+      <c r="XEX30" s="1"/>
+      <c r="XEY30" s="1"/>
+      <c r="XEZ30" s="1"/>
+      <c r="XFA30" s="1"/>
+      <c r="XFB30" s="1"/>
+      <c r="XFC30" s="1"/>
+      <c r="XFD30" s="1"/>
+    </row>
+    <row r="31" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C31" s="20" t="s">
@@ -3987,24 +4123,34 @@
       <c r="E31" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="XET31" s="1"/>
+      <c r="XEU31" s="1"/>
+      <c r="XEV31" s="1"/>
+      <c r="XEW31" s="1"/>
+      <c r="XEX31" s="1"/>
+      <c r="XEY31" s="1"/>
+      <c r="XEZ31" s="1"/>
+      <c r="XFA31" s="1"/>
+      <c r="XFB31" s="1"/>
+      <c r="XFC31" s="1"/>
+      <c r="XFD31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
         <v>171</v>
       </c>
@@ -4028,7 +4174,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="s">
         <v>172</v>
       </c>
@@ -4052,7 +4198,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
         <v>6</v>
       </c>
@@ -4077,19 +4223,19 @@
       <c r="H34" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M34" s="18" t="s">
         <v>183</v>
       </c>
       <c r="N34" s="16" t="s">
@@ -4098,39 +4244,38 @@
       <c r="O34" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="P34" s="27" t="s">
+      <c r="P34" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="R34" s="27" t="s">
+      <c r="R34" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="S34" s="27" t="s">
+      <c r="S34" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="T34" s="27" t="s">
+      <c r="T34" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="U34" s="27" t="s">
+      <c r="U34" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="V34" s="27" t="s">
+      <c r="V34" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="W34" s="27" t="s">
+      <c r="W34" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="X34" s="27" t="s">
+      <c r="X34" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="Y34" s="27" t="s">
+      <c r="Y34" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="XES34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
         <v>15</v>
       </c>
@@ -4155,19 +4300,19 @@
       <c r="H35" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="18" t="s">
         <v>206</v>
       </c>
       <c r="N35" s="16" t="s">
@@ -4176,43 +4321,42 @@
       <c r="O35" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="P35" s="20" t="s">
+      <c r="P35" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="R35" s="20" t="s">
+      <c r="R35" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="S35" s="20" t="s">
+      <c r="S35" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="T35" s="20" t="s">
+      <c r="T35" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="W35" s="20" t="s">
+      <c r="W35" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="X35" s="20" t="s">
+      <c r="X35" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="Y35" s="20" t="s">
+      <c r="Y35" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="XES35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="243.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+    </row>
+    <row r="36" s="23" customFormat="true" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C36" s="20" t="s">
@@ -4248,49 +4392,59 @@
       <c r="M36" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="O36" s="20" t="s">
+      <c r="O36" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="P36" s="20" t="s">
+      <c r="P36" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="Q36" s="20" t="s">
+      <c r="Q36" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="R36" s="20" t="s">
+      <c r="R36" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="S36" s="20" t="s">
+      <c r="S36" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="U36" s="20" t="s">
+      <c r="U36" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="V36" s="20" t="s">
+      <c r="V36" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="W36" s="20" t="s">
+      <c r="W36" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="X36" s="20" t="s">
+      <c r="X36" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="Y36" s="20" t="s">
+      <c r="Y36" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="XES36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+      <c r="XET36" s="1"/>
+      <c r="XEU36" s="1"/>
+      <c r="XEV36" s="1"/>
+      <c r="XEW36" s="1"/>
+      <c r="XEX36" s="1"/>
+      <c r="XEY36" s="1"/>
+      <c r="XEZ36" s="1"/>
+      <c r="XFA36" s="1"/>
+      <c r="XFB36" s="1"/>
+      <c r="XFC36" s="1"/>
+      <c r="XFD36" s="1"/>
+    </row>
+    <row r="37" s="23" customFormat="true" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="20" t="s">
@@ -4299,10 +4453,10 @@
       <c r="D37" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="24" t="s">
         <v>245</v>
       </c>
       <c r="G37" s="20" t="s">
@@ -4326,49 +4480,59 @@
       <c r="M37" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="O37" s="20" t="s">
+      <c r="O37" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="Q37" s="20" t="s">
+      <c r="Q37" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="R37" s="20" t="s">
+      <c r="R37" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="S37" s="20" t="s">
+      <c r="S37" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="T37" s="20" t="s">
+      <c r="T37" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="U37" s="20" t="n">
+      <c r="U37" s="30" t="n">
         <v>39.067</v>
       </c>
-      <c r="V37" s="20" t="n">
+      <c r="V37" s="30" t="n">
         <v>-8.73</v>
       </c>
-      <c r="W37" s="20" t="s">
+      <c r="W37" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="X37" s="20" t="s">
+      <c r="X37" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="Y37" s="20" t="s">
+      <c r="Y37" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="XES37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="XET37" s="1"/>
+      <c r="XEU37" s="1"/>
+      <c r="XEV37" s="1"/>
+      <c r="XEW37" s="1"/>
+      <c r="XEX37" s="1"/>
+      <c r="XEY37" s="1"/>
+      <c r="XEZ37" s="1"/>
+      <c r="XFA37" s="1"/>
+      <c r="XFB37" s="1"/>
+      <c r="XFC37" s="1"/>
+      <c r="XFD37" s="1"/>
+    </row>
+    <row r="38" s="23" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C38" s="20" t="s">
@@ -4404,46 +4568,56 @@
       <c r="M38" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="P38" s="20" t="s">
+      <c r="P38" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="R38" s="20" t="s">
+      <c r="R38" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="S38" s="20" t="s">
+      <c r="S38" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="T38" s="20" t="s">
+      <c r="T38" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="U38" s="20" t="s">
+      <c r="U38" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="V38" s="20" t="s">
+      <c r="V38" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="W38" s="20" t="s">
+      <c r="W38" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="X38" s="20" t="s">
+      <c r="X38" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="Y38" s="20" t="s">
+      <c r="Y38" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="XES38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="s">
+      <c r="XET38" s="1"/>
+      <c r="XEU38" s="1"/>
+      <c r="XEV38" s="1"/>
+      <c r="XEW38" s="1"/>
+      <c r="XEX38" s="1"/>
+      <c r="XEY38" s="1"/>
+      <c r="XEZ38" s="1"/>
+      <c r="XFA38" s="1"/>
+      <c r="XFB38" s="1"/>
+      <c r="XFC38" s="1"/>
+      <c r="XFD38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31" t="s">
         <v>267</v>
       </c>
       <c r="B39" s="13"/>
@@ -4490,7 +4664,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
         <v>6</v>
       </c>
@@ -4503,7 +4677,7 @@
       <c r="D41" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="29"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4521,7 +4695,7 @@
       <c r="T41" s="8"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
         <v>15</v>
       </c>
@@ -4534,7 +4708,7 @@
       <c r="D42" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -4552,11 +4726,11 @@
       <c r="T42" s="8"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+    <row r="43" s="23" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C43" s="20" t="s">
@@ -4565,29 +4739,39 @@
       <c r="D43" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="XET43" s="1"/>
+      <c r="XEU43" s="1"/>
+      <c r="XEV43" s="1"/>
+      <c r="XEW43" s="1"/>
+      <c r="XEX43" s="1"/>
+      <c r="XEY43" s="1"/>
+      <c r="XEZ43" s="1"/>
+      <c r="XFA43" s="1"/>
+      <c r="XFB43" s="1"/>
+      <c r="XFC43" s="1"/>
+      <c r="XFD43" s="1"/>
+    </row>
+    <row r="44" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C44" s="20" t="s">
@@ -4597,28 +4781,38 @@
         <v>276</v>
       </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="F44" s="29"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="XET44" s="1"/>
+      <c r="XEU44" s="1"/>
+      <c r="XEV44" s="1"/>
+      <c r="XEW44" s="1"/>
+      <c r="XEX44" s="1"/>
+      <c r="XEY44" s="1"/>
+      <c r="XEZ44" s="1"/>
+      <c r="XFA44" s="1"/>
+      <c r="XFB44" s="1"/>
+      <c r="XFC44" s="1"/>
+      <c r="XFD44" s="1"/>
+    </row>
+    <row r="45" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C45" s="20" t="s">
@@ -4627,26 +4821,36 @@
       <c r="D45" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="XET45" s="1"/>
+      <c r="XEU45" s="1"/>
+      <c r="XEV45" s="1"/>
+      <c r="XEW45" s="1"/>
+      <c r="XEX45" s="1"/>
+      <c r="XEY45" s="1"/>
+      <c r="XEZ45" s="1"/>
+      <c r="XFA45" s="1"/>
+      <c r="XFB45" s="1"/>
+      <c r="XFC45" s="1"/>
+      <c r="XFD45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="31" t="s">
         <v>278</v>
       </c>
       <c r="B46" s="13"/>
@@ -4669,7 +4873,7 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="97.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
         <v>279</v>
       </c>
@@ -4693,7 +4897,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
         <v>6</v>
       </c>
@@ -4709,15 +4913,15 @@
       <c r="E48" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -4726,7 +4930,7 @@
       <c r="T48" s="8"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
         <v>15</v>
       </c>
@@ -4742,15 +4946,15 @@
       <c r="E49" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
@@ -4759,11 +4963,11 @@
       <c r="T49" s="8"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+    <row r="50" s="23" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C50" s="20" t="s">
@@ -4775,28 +4979,38 @@
       <c r="E50" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="XET50" s="1"/>
+      <c r="XEU50" s="1"/>
+      <c r="XEV50" s="1"/>
+      <c r="XEW50" s="1"/>
+      <c r="XEX50" s="1"/>
+      <c r="XEY50" s="1"/>
+      <c r="XEZ50" s="1"/>
+      <c r="XFA50" s="1"/>
+      <c r="XFB50" s="1"/>
+      <c r="XFC50" s="1"/>
+      <c r="XFD50" s="1"/>
+    </row>
+    <row r="51" s="23" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C51" s="20" t="s">
@@ -4805,31 +5019,41 @@
       <c r="D51" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="F51" s="29"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="XET51" s="1"/>
+      <c r="XEU51" s="1"/>
+      <c r="XEV51" s="1"/>
+      <c r="XEW51" s="1"/>
+      <c r="XEX51" s="1"/>
+      <c r="XEY51" s="1"/>
+      <c r="XEZ51" s="1"/>
+      <c r="XFA51" s="1"/>
+      <c r="XFB51" s="1"/>
+      <c r="XFC51" s="1"/>
+      <c r="XFD51" s="1"/>
+    </row>
+    <row r="52" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C52" s="20" t="s">
@@ -4841,25 +5065,35 @@
       <c r="E52" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28" t="s">
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="XET52" s="1"/>
+      <c r="XEU52" s="1"/>
+      <c r="XEV52" s="1"/>
+      <c r="XEW52" s="1"/>
+      <c r="XEX52" s="1"/>
+      <c r="XEY52" s="1"/>
+      <c r="XEZ52" s="1"/>
+      <c r="XFA52" s="1"/>
+      <c r="XFB52" s="1"/>
+      <c r="XFC52" s="1"/>
+      <c r="XFD52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="31" t="s">
         <v>293</v>
       </c>
       <c r="B53" s="13"/>
@@ -4882,7 +5116,7 @@
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="s">
         <v>294</v>
       </c>
@@ -4906,7 +5140,7 @@
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
         <v>6</v>
       </c>
@@ -4928,13 +5162,13 @@
       <c r="G55" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
@@ -4942,7 +5176,7 @@
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
         <v>15</v>
       </c>
@@ -4964,13 +5198,13 @@
       <c r="G56" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
@@ -4978,53 +5212,64 @@
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+    <row r="57" s="23" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="XET57" s="1"/>
+      <c r="XEU57" s="1"/>
+      <c r="XEV57" s="1"/>
+      <c r="XEW57" s="1"/>
+      <c r="XEX57" s="1"/>
+      <c r="XEY57" s="1"/>
+      <c r="XEZ57" s="1"/>
+      <c r="XFA57" s="1"/>
+      <c r="XFB57" s="1"/>
+      <c r="XFC57" s="1"/>
+      <c r="XFD57" s="1"/>
+    </row>
+    <row r="58" s="23" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="20" t="s">
         <v>311</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -5033,60 +5278,82 @@
       <c r="F58" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="XET58" s="1"/>
+      <c r="XEU58" s="1"/>
+      <c r="XEV58" s="1"/>
+      <c r="XEW58" s="1"/>
+      <c r="XEX58" s="1"/>
+      <c r="XEY58" s="1"/>
+      <c r="XEZ58" s="1"/>
+      <c r="XFA58" s="1"/>
+      <c r="XFB58" s="1"/>
+      <c r="XFC58" s="1"/>
+      <c r="XFD58" s="1"/>
+    </row>
+    <row r="59" s="23" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="XET59" s="1"/>
+      <c r="XEU59" s="1"/>
+      <c r="XEV59" s="1"/>
+      <c r="XEW59" s="1"/>
+      <c r="XEX59" s="1"/>
+      <c r="XEY59" s="1"/>
+      <c r="XEZ59" s="1"/>
+      <c r="XFA59" s="1"/>
+      <c r="XFB59" s="1"/>
+      <c r="XFC59" s="1"/>
+      <c r="XFD59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
         <v>317</v>
       </c>
@@ -5110,7 +5377,7 @@
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="s">
         <v>318</v>
       </c>
@@ -5134,7 +5401,7 @@
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
         <v>6</v>
       </c>
@@ -5159,12 +5426,12 @@
       <c r="H62" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
@@ -5172,7 +5439,7 @@
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
         <v>15</v>
       </c>
@@ -5197,12 +5464,12 @@
       <c r="H63" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
@@ -5210,122 +5477,155 @@
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
+    <row r="64" s="23" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-    </row>
-    <row r="65" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="s">
+      <c r="I64" s="27"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="XET64" s="1"/>
+      <c r="XEU64" s="1"/>
+      <c r="XEV64" s="1"/>
+      <c r="XEW64" s="1"/>
+      <c r="XEX64" s="1"/>
+      <c r="XEY64" s="1"/>
+      <c r="XEZ64" s="1"/>
+      <c r="XFA64" s="1"/>
+      <c r="XFB64" s="1"/>
+      <c r="XFC64" s="1"/>
+      <c r="XFD64" s="1"/>
+    </row>
+    <row r="65" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
+      <c r="I65" s="27"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="XET65" s="1"/>
+      <c r="XEU65" s="1"/>
+      <c r="XEV65" s="1"/>
+      <c r="XEW65" s="1"/>
+      <c r="XEX65" s="1"/>
+      <c r="XEY65" s="1"/>
+      <c r="XEZ65" s="1"/>
+      <c r="XFA65" s="1"/>
+      <c r="XFB65" s="1"/>
+      <c r="XFC65" s="1"/>
+      <c r="XFD65" s="1"/>
+    </row>
+    <row r="66" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-    </row>
-    <row r="67" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28" t="s">
+      <c r="I66" s="27"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="XET66" s="1"/>
+      <c r="XEU66" s="1"/>
+      <c r="XEV66" s="1"/>
+      <c r="XEW66" s="1"/>
+      <c r="XEX66" s="1"/>
+      <c r="XEY66" s="1"/>
+      <c r="XEZ66" s="1"/>
+      <c r="XFA66" s="1"/>
+      <c r="XFB66" s="1"/>
+      <c r="XFC66" s="1"/>
+      <c r="XFD66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="31" t="s">
         <v>342</v>
       </c>
       <c r="B67" s="13"/>
@@ -5348,7 +5648,7 @@
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="97.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="s">
         <v>343</v>
       </c>
@@ -5372,7 +5672,7 @@
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
         <v>6</v>
       </c>
@@ -5397,12 +5697,12 @@
       <c r="H69" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
@@ -5410,7 +5710,7 @@
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
         <v>15</v>
       </c>
@@ -5435,12 +5735,12 @@
       <c r="H70" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
@@ -5448,55 +5748,66 @@
       <c r="S70" s="8"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15" t="s">
+    <row r="71" s="23" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G71" s="24" t="s">
+      <c r="G71" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="H71" s="24" t="s">
+      <c r="H71" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-    </row>
-    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15" t="s">
+      <c r="I71" s="27"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="XET71" s="1"/>
+      <c r="XEU71" s="1"/>
+      <c r="XEV71" s="1"/>
+      <c r="XEW71" s="1"/>
+      <c r="XEX71" s="1"/>
+      <c r="XEY71" s="1"/>
+      <c r="XEZ71" s="1"/>
+      <c r="XFA71" s="1"/>
+      <c r="XFB71" s="1"/>
+      <c r="XFC71" s="1"/>
+      <c r="XFD71" s="1"/>
+    </row>
+    <row r="72" s="23" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="20" t="s">
         <v>363</v>
       </c>
       <c r="E72" s="24" t="s">
@@ -5505,64 +5816,86 @@
       <c r="F72" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="H72" s="24" t="s">
+      <c r="H72" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-    </row>
-    <row r="73" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="s">
+      <c r="I72" s="27"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="XET72" s="1"/>
+      <c r="XEU72" s="1"/>
+      <c r="XEV72" s="1"/>
+      <c r="XEW72" s="1"/>
+      <c r="XEX72" s="1"/>
+      <c r="XEY72" s="1"/>
+      <c r="XEZ72" s="1"/>
+      <c r="XFA72" s="1"/>
+      <c r="XFB72" s="1"/>
+      <c r="XFC72" s="1"/>
+      <c r="XFD72" s="1"/>
+    </row>
+    <row r="73" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G73" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="H73" s="24" t="s">
+      <c r="H73" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-    </row>
-    <row r="74" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I73" s="27"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="XET73" s="1"/>
+      <c r="XEU73" s="1"/>
+      <c r="XEV73" s="1"/>
+      <c r="XEW73" s="1"/>
+      <c r="XEX73" s="1"/>
+      <c r="XEY73" s="1"/>
+      <c r="XEZ73" s="1"/>
+      <c r="XFA73" s="1"/>
+      <c r="XFB73" s="1"/>
+      <c r="XFC73" s="1"/>
+      <c r="XFD73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
         <v>371</v>
       </c>
@@ -5586,7 +5919,7 @@
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
         <v>372</v>
       </c>
@@ -5610,7 +5943,7 @@
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
         <v>6</v>
       </c>
@@ -5629,19 +5962,19 @@
       <c r="F76" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="G76" s="27" t="s">
+      <c r="G76" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="H76" s="27" t="s">
+      <c r="H76" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I76" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="J76" s="27" t="s">
+      <c r="J76" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="K76" s="27" t="s">
+      <c r="K76" s="18" t="s">
         <v>381</v>
       </c>
       <c r="L76" s="17" t="s">
@@ -5668,7 +6001,7 @@
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
         <v>15</v>
       </c>
@@ -5687,19 +6020,19 @@
       <c r="F77" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="H77" s="20" t="s">
+      <c r="H77" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="J77" s="20" t="s">
+      <c r="J77" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="K77" s="20" t="s">
+      <c r="K77" s="18" t="s">
         <v>397</v>
       </c>
       <c r="L77" s="17" t="s">
@@ -5726,11 +6059,11 @@
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
+    <row r="78" s="23" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="20" t="s">
         <v>405</v>
       </c>
       <c r="C78" s="20" t="s">
@@ -5766,29 +6099,40 @@
       <c r="M78" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="N78" s="20" t="s">
+      <c r="N78" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="O78" s="20" t="s">
+      <c r="O78" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="P78" s="20" t="s">
+      <c r="P78" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="Q78" s="20" t="s">
+      <c r="Q78" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="R78" s="20" t="s">
+      <c r="R78" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15" t="s">
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="XET78" s="1"/>
+      <c r="XEU78" s="1"/>
+      <c r="XEV78" s="1"/>
+      <c r="XEW78" s="1"/>
+      <c r="XEX78" s="1"/>
+      <c r="XEY78" s="1"/>
+      <c r="XEZ78" s="1"/>
+      <c r="XFA78" s="1"/>
+      <c r="XFB78" s="1"/>
+      <c r="XFC78" s="1"/>
+      <c r="XFD78" s="1"/>
+    </row>
+    <row r="79" s="23" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -5797,10 +6141,10 @@
       <c r="D79" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="24" t="s">
         <v>425</v>
       </c>
       <c r="G79" s="20" t="s">
@@ -5824,29 +6168,40 @@
       <c r="M79" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="N79" s="20" t="s">
+      <c r="N79" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="O79" s="20" t="s">
+      <c r="O79" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="P79" s="20" t="s">
+      <c r="P79" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="Q79" s="20" t="s">
+      <c r="Q79" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="R79" s="20" t="s">
+      <c r="R79" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
+      <c r="S79" s="22"/>
+      <c r="T79" s="22"/>
+      <c r="XET79" s="1"/>
+      <c r="XEU79" s="1"/>
+      <c r="XEV79" s="1"/>
+      <c r="XEW79" s="1"/>
+      <c r="XEX79" s="1"/>
+      <c r="XEY79" s="1"/>
+      <c r="XEZ79" s="1"/>
+      <c r="XFA79" s="1"/>
+      <c r="XFB79" s="1"/>
+      <c r="XFC79" s="1"/>
+      <c r="XFD79" s="1"/>
+    </row>
+    <row r="80" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C80" s="20" t="s">
@@ -5882,26 +6237,37 @@
       <c r="M80" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="N80" s="20" t="s">
+      <c r="N80" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="O80" s="20" t="s">
+      <c r="O80" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="P80" s="20" t="s">
+      <c r="P80" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q80" s="20" t="s">
+      <c r="Q80" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="R80" s="20" t="s">
+      <c r="R80" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="35" t="s">
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+      <c r="XET80" s="1"/>
+      <c r="XEU80" s="1"/>
+      <c r="XEV80" s="1"/>
+      <c r="XEW80" s="1"/>
+      <c r="XEX80" s="1"/>
+      <c r="XEY80" s="1"/>
+      <c r="XEZ80" s="1"/>
+      <c r="XFA80" s="1"/>
+      <c r="XFB80" s="1"/>
+      <c r="XFC80" s="1"/>
+      <c r="XFD80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="36" t="s">
         <v>441</v>
       </c>
       <c r="B81" s="13"/>
@@ -5924,8 +6290,8 @@
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="36" t="s">
+    <row r="82" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="37" t="s">
         <v>442</v>
       </c>
       <c r="B82" s="13"/>
@@ -5948,8 +6314,8 @@
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="35" t="s">
+    <row r="83" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="36" t="s">
         <v>443</v>
       </c>
       <c r="B83" s="13"/>
@@ -6985,28 +7351,23 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="41" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>67</v>
       </c>
@@ -7028,132 +7389,132 @@
       <c r="G1" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8161,23 +8522,17 @@
   </sheetPr>
   <dimension ref="A1:M997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="46" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="46" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="46" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="53" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="41" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>300</v>
       </c>
@@ -8199,132 +8554,132 @@
       <c r="G1" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9331,10 +9686,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T997"/>
+  <dimension ref="A1:Q997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9344,205 +9699,206 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="10.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16379" min="16379" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="44" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10552,14 +10908,14 @@
   </sheetPr>
   <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="46" width="48.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="53" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="53" width="48.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10633,1026 +10989,1026 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="51" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="59" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60" t="s">
         <v>449</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="60" t="s">
         <v>450</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="60" t="s">
         <v>451</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+    <row r="7" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="60" t="s">
         <v>453</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>454</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" s="51" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+    <row r="8" s="59" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="9" s="51" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
+    <row r="9" s="59" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="60" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="10" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
+    <row r="10" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="60" t="s">
         <v>463</v>
       </c>
-      <c r="C10" s="52" t="n">
+      <c r="C10" s="60" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="s">
+    <row r="11" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="s">
         <v>464</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="60" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="12" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="s">
+    <row r="12" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="60" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" s="51" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
+    <row r="13" s="59" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="14" s="51" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+    <row r="14" s="59" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="60" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="15" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
+    <row r="15" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="60" t="s">
         <v>477</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+    <row r="16" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="60" t="s">
         <v>478</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="60" t="s">
         <v>479</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="17" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
+    <row r="17" s="59" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="18" s="51" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
+    <row r="18" s="59" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="60" t="s">
         <v>483</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="19" s="51" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="s">
+    <row r="19" s="59" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="60" t="s">
         <v>486</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" s="51" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+    <row r="20" s="59" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="60" t="s">
         <v>488</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="60" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="60" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="21" s="51" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
+    <row r="21" s="59" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="22" s="51" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
+    <row r="22" s="59" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="60" t="s">
         <v>495</v>
       </c>
-      <c r="C22" s="52" t="n">
+      <c r="C22" s="60" t="n">
         <v>0.3</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" s="51" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="s">
+    <row r="23" s="59" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="24" s="51" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="s">
+    <row r="24" s="59" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="C24" s="52" t="n">
+      <c r="C24" s="60" t="n">
         <v>0.33</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" s="51" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="59" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-    </row>
-    <row r="26" s="51" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+    </row>
+    <row r="26" s="59" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="60" t="s">
         <v>502</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="60" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="60" t="s">
         <v>506</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="60" t="s">
         <v>509</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="60" t="s">
         <v>514</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="60" t="s">
         <v>516</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="60" t="s">
         <v>519</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="60" t="s">
         <v>521</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="60" t="s">
         <v>522</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="60" t="s">
         <v>524</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
     </row>
     <row r="33" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="60" t="s">
         <v>526</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="60" t="s">
         <v>527</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
     </row>
     <row r="34" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
     </row>
     <row r="35" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="60" t="s">
         <v>531</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="60" t="s">
         <v>532</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="60" t="s">
         <v>535</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="60" t="s">
         <v>536</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
     </row>
     <row r="37" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="60" t="s">
         <v>538</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
     </row>
     <row r="38" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="60" t="s">
         <v>542</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="60" t="s">
         <v>547</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
     </row>
     <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="60" t="s">
         <v>550</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="60" t="s">
         <v>551</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="60" t="s">
         <v>553</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="60" t="s">
         <v>554</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="60" t="s">
         <v>555</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="60" t="s">
         <v>556</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="60" t="s">
         <v>558</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="60" t="s">
         <v>559</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
     </row>
     <row r="45" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="60" t="s">
         <v>553</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="60" t="s">
         <v>561</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="60" t="s">
         <v>562</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="60" t="s">
         <v>563</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="60" t="s">
         <v>564</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="60" t="s">
         <v>565</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="60" t="s">
         <v>566</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="60" t="s">
         <v>567</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="60" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
     </row>
     <row r="49" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="60" t="s">
         <v>569</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="60" t="s">
         <v>570</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
     </row>
     <row r="50" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="60" t="s">
         <v>571</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="51"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12624,8 +12980,8 @@
   </sheetPr>
   <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12707,362 +13063,362 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="57" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="60" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="60" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="60" t="s">
         <v>583</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="60" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="60" t="s">
         <v>585</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="60" t="s">
         <v>586</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="60" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="60" t="s">
         <v>588</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>590</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="60" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="60" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="60" t="s">
         <v>595</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="60" t="s">
         <v>596</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="60" t="s">
         <v>597</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="60" t="s">
         <v>599</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="60" t="s">
         <v>601</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="60" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="60" t="s">
         <v>603</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="60" t="s">
         <v>604</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="60" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="60" t="s">
         <v>607</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="60" t="s">
         <v>609</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="60" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="60" t="s">
         <v>612</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="60" t="s">
         <v>613</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="60" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="60" t="s">
         <v>617</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="60" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="60" t="s">
         <v>619</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="60" t="s">
         <v>620</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="60" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="60" t="s">
         <v>623</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="60" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="60" t="s">
         <v>627</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="60" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="60" t="s">
         <v>631</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="60" t="s">
         <v>633</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="60" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="60" t="s">
         <v>635</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="60" t="s">
         <v>636</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="60" t="s">
         <v>637</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="60" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="60" t="s">
         <v>639</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="60" t="s">
         <v>640</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="60" t="s">
         <v>641</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="60" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="60" t="s">
         <v>643</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="60" t="s">
         <v>644</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="60" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="60" t="s">
         <v>647</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="60" t="s">
         <v>648</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="60" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="60" t="s">
         <v>651</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="60" t="s">
         <v>652</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="60" t="s">
         <v>653</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="60" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="60" t="s">
         <v>655</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="60" t="s">
         <v>656</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="60" t="s">
         <v>657</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="60" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="60" t="s">
         <v>659</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="60" t="s">
         <v>660</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="60" t="s">
         <v>661</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="60" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="60" t="s">
         <v>663</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="60" t="s">
         <v>664</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="60" t="s">
         <v>665</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="60" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="60" t="s">
         <v>667</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="60" t="s">
         <v>668</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="60" t="s">
         <v>669</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="60" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="60" t="s">
         <v>671</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60" t="s">
         <v>461</v>
       </c>
     </row>
@@ -14057,20 +14413,13 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16231" style="1" width="11.5"/>
   </cols>
   <sheetData>
@@ -14101,74 +14450,74 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -15171,31 +15520,13 @@
   </sheetPr>
   <dimension ref="A1:S977"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16315" style="1" width="11.5"/>
   </cols>
   <sheetData>
@@ -15251,7 +15582,7 @@
       <c r="Q1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="25" t="s">
         <v>84</v>
       </c>
       <c r="S1" s="18" t="s">
@@ -15259,151 +15590,151 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16393,13 +16724,13 @@
   </sheetPr>
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
@@ -16425,60 +16756,60 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17487,13 +17818,13 @@
   </sheetPr>
   <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
@@ -17511,68 +17842,68 @@
       <c r="D1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18582,288 +18913,294 @@
   </sheetPr>
   <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="29.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="29.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="18.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="44" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19872,15 +20209,13 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.5"/>
   </cols>
   <sheetData>
@@ -19896,40 +20231,40 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -20935,22 +21270,19 @@
   </sheetPr>
   <dimension ref="A1:M997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="41" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>67</v>
       </c>
@@ -20963,165 +21295,165 @@
       <c r="D1" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -22127,23 +22459,18 @@
   </sheetPr>
   <dimension ref="A1:M997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="1" width="43.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="44" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="51" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>67</v>
       </c>
@@ -22162,133 +22489,133 @@
       <c r="F1" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
